--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-07-the-indirect-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-07-the-indirect-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3020F1-0D45-409E-8B7D-03C4B7DA80DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504A28A-C72D-4F38-9B0A-71FEFC247EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{C1680150-74BF-414F-A6B4-C214AED80E54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C1680150-74BF-414F-A6B4-C214AED80E54}"/>
   </bookViews>
   <sheets>
     <sheet name="INDIRECT 1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Sales Figures by Region</t>
   </si>
@@ -251,6 +251,30 @@
   </si>
   <si>
     <t>Tours for 2020</t>
+  </si>
+  <si>
+    <t>k10</t>
+  </si>
+  <si>
+    <t>directly reference to I10</t>
+  </si>
+  <si>
+    <t>I10 -&gt; k10</t>
+  </si>
+  <si>
+    <t>This is K10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>"R10C10"</t>
+  </si>
+  <si>
+    <t>Row10 &amp; Column 10</t>
+  </si>
+  <si>
+    <t>Aug</t>
   </si>
 </sst>
 </file>
@@ -258,9 +282,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +318,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,20 +561,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,10 +607,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -899,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406EB1E-B983-4489-826C-C36A0E20ACDD}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,12 +945,12 @@
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
@@ -937,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -954,11 +984,14 @@
         <v>521</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29">
+        <f ca="1">SUM(INDIRECT(G4))</f>
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -974,8 +1007,11 @@
       <c r="E5" s="7">
         <v>748</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -992,7 +1028,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1045,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1062,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -1042,8 +1078,17 @@
       <c r="E9" s="7">
         <v>443</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1104,18 @@
       <c r="E10" s="7">
         <v>618</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">INDIRECT(I10)</f>
+        <v>300</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1132,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1149,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1112,16 +1167,21 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{15D932B9-270D-4360-B21E-AC7866B002F1}">
+      <formula1>$B$3:$E$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750D9E3A-93C7-4617-8B29-C9F83EFA60BC}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,12 +1192,12 @@
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>23</v>
@@ -1160,11 +1220,14 @@
       <c r="H3" s="24" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K3" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
@@ -1189,13 +1252,18 @@
       <c r="H4" s="7">
         <v>6274</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="K4" cm="1">
+      <c r="I4" s="7">
+        <v>6274</v>
+      </c>
+      <c r="K4" s="1" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("R15C"&amp;COUNTA(15:15),FALSE)</f>
-        <v>74494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115898</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
@@ -1220,8 +1288,14 @@
       <c r="H5" s="7">
         <v>8876</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="7">
+        <v>8876</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1246,8 +1320,11 @@
       <c r="H6" s="7">
         <v>4804</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="7">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1272,8 +1349,11 @@
       <c r="H7" s="7">
         <v>4581</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="7">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1298,8 +1378,11 @@
       <c r="H8" s="7">
         <v>8557</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="7">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
@@ -1324,8 +1407,11 @@
       <c r="H9" s="7">
         <v>5695</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I9" s="7">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
@@ -1350,8 +1436,11 @@
       <c r="H10" s="7">
         <v>9596</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>30</v>
       </c>
@@ -1376,8 +1465,11 @@
       <c r="H11" s="7">
         <v>5037</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="7">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>31</v>
       </c>
@@ -1402,8 +1494,11 @@
       <c r="H12" s="7">
         <v>5854</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="7">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
@@ -1428,8 +1523,11 @@
       <c r="H13" s="7">
         <v>6662</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="7">
+        <v>6662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>33</v>
       </c>
@@ -1454,8 +1552,11 @@
       <c r="H14" s="10">
         <v>8558</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="10">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
@@ -1464,7 +1565,7 @@
         <v>73016</v>
       </c>
       <c r="C15" s="32">
-        <f t="shared" ref="C15:H15" si="0">SUM(C4:C14)</f>
+        <f t="shared" ref="C15:I15" si="0">SUM(C4:C14)</f>
         <v>84371</v>
       </c>
       <c r="D15" s="32">
@@ -1487,8 +1588,13 @@
         <f t="shared" si="0"/>
         <v>74494</v>
       </c>
+      <c r="I15" s="32">
+        <f t="shared" si="0"/>
+        <v>115898</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1497,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE46A27C-2DD3-428B-896D-3D8EEE0F12E6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
